--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38123D75-A132-45AD-BFB2-174620F8E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067C266-5E33-419D-A8F2-C6F658806187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>EOSIO</t>
   </si>
@@ -119,9 +119,6 @@
     <t>64 bit</t>
   </si>
   <si>
-    <t>20 bytes</t>
-  </si>
-  <si>
     <t>uint32_t</t>
   </si>
   <si>
@@ -129,6 +126,44 @@
   </si>
   <si>
     <t>32 bit</t>
+  </si>
+  <si>
+    <t>msg.value</t>
+  </si>
+  <si>
+    <t>qty.amount</t>
+  </si>
+  <si>
+    <t>token quantity amount</t>
+  </si>
+  <si>
+    <t>type: uint64_t
+asset is class where amount is the actual value</t>
+  </si>
+  <si>
+    <t>type: uint (wei)
+NOTE: uint is alias for uint256</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>others\eosio_vs_eth_constructor.png</t>
+  </si>
+  <si>
+    <t>20 bytes = 160 bits</t>
+  </si>
+  <si>
+    <t>used in token quantity balance, deposit, withdraw, transfer</t>
+  </si>
+  <si>
+    <t>to initialize</t>
+  </si>
+  <si>
+    <t>account name, filename, contract name must match</t>
+  </si>
+  <si>
+    <t>filename, contract name must match</t>
   </si>
 </sst>
 </file>
@@ -201,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -226,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,18 +582,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -579,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -596,7 +634,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
@@ -671,33 +709,57 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="8" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -758,8 +820,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067C266-5E33-419D-A8F2-C6F658806187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824B096-0669-4F39-A9AE-DA0188E737F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>EOSIO</t>
   </si>
@@ -75,16 +75,10 @@
     <t>get_self()</t>
   </si>
   <si>
-    <t>address(this)</t>
-  </si>
-  <si>
     <t>used for permission of the contract itself</t>
   </si>
   <si>
     <t>get contract account</t>
-  </si>
-  <si>
-    <t>gasleft() returns (uint256)</t>
   </si>
   <si>
     <t>get_balance()</t>
@@ -163,7 +157,44 @@
     <t>account name, filename, contract name must match</t>
   </si>
   <si>
-    <t>filename, contract name must match</t>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>check(get_first_receiver() == get_self(), "ACTION called by other contract.")</t>
+  </si>
+  <si>
+    <t>require (msg.sender == owner, "method called by non-owner.")</t>
+  </si>
+  <si>
+    <t>used to check parameter</t>
+  </si>
+  <si>
+    <t>filename, contract name must match
+It is executed once when the contract is deployed for the 1st time. That means the owner is the contract deployer</t>
+  </si>
+  <si>
+    <t>address(this).balance</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>block.timestamp</t>
+  </si>
+  <si>
+    <t>img\eosio_currenttimestamp.png</t>
+  </si>
+  <si>
+    <t>curent timestamp</t>
+  </si>
+  <si>
+    <t>get the current timestamp</t>
+  </si>
+  <si>
+    <t>available as global var</t>
+  </si>
+  <si>
+    <t>address(this) or tx.origin</t>
   </si>
 </sst>
 </file>
@@ -236,19 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -261,9 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,7 +602,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -591,9 +610,9 @@
     <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -607,223 +626,244 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{256ACFD2-13C0-4F91-80D3-9F69465C5166}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824B096-0669-4F39-A9AE-DA0188E737F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2D29-D5B4-49D8-B549-8671E06CE931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>EOSIO</t>
   </si>
@@ -195,6 +195,33 @@
   </si>
   <si>
     <t>address(this) or tx.origin</t>
+  </si>
+  <si>
+    <t>contract repo (official)</t>
+  </si>
+  <si>
+    <t>https://github.com/EOSIO/eosio.contracts/tree/master/contracts</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenZeppelin/openzeppelin-contracts/tree/master/contracts</t>
+  </si>
+  <si>
+    <t>token standard</t>
+  </si>
+  <si>
+    <t>EOSIO token</t>
+  </si>
+  <si>
+    <t>ERC20</t>
+  </si>
+  <si>
+    <t>token transfer from 1 account to another account</t>
+  </si>
+  <si>
+    <t>transferFrom()</t>
+  </si>
+  <si>
+    <t>transfer()</t>
   </si>
 </sst>
 </file>
@@ -601,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -816,26 +843,44 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>

--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2D29-D5B4-49D8-B549-8671E06CE931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD6868-16B2-49F3-9500-623B901C3FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>EOSIO</t>
   </si>
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t>transfer()</t>
+  </si>
+  <si>
+    <t>name of decimals in a token amount</t>
+  </si>
+  <si>
+    <t>token precision (4 max.)</t>
+  </si>
+  <si>
+    <t>token decimals (18 max.)</t>
+  </si>
+  <si>
+    <t>lowest value, unit = 10^(-18), wei</t>
+  </si>
+  <si>
+    <t>lowest value, unit = 0.0001, -</t>
   </si>
 </sst>
 </file>
@@ -628,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -885,13 +900,22 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>

--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DD6868-16B2-49F3-9500-623B901C3FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E69A6-39E3-494D-97CA-8B865D297FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>EOSIO</t>
   </si>
@@ -36,15 +36,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>account type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>msg.sender</t>
   </si>
   <si>
@@ -52,9 +43,6 @@
   </si>
   <si>
     <t>Usage</t>
-  </si>
-  <si>
-    <t>used as a parameter in method/function</t>
   </si>
   <si>
     <t>Remarks for ETH</t>
@@ -110,9 +98,6 @@
     <t>contract's method accepts token payment</t>
   </si>
   <si>
-    <t>64 bit</t>
-  </si>
-  <si>
     <t>uint32_t</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>others\eosio_vs_eth_constructor.png</t>
   </si>
   <si>
-    <t>20 bytes = 160 bits</t>
-  </si>
-  <si>
     <t>used in token quantity balance, deposit, withdraw, transfer</t>
   </si>
   <si>
@@ -237,13 +219,216 @@
   </si>
   <si>
     <t>lowest value, unit = 0.0001, -</t>
+  </si>
+  <si>
+    <t>cpu, net limit</t>
+  </si>
+  <si>
+    <t>gas limit</t>
+  </si>
+  <si>
+    <t>limit defined per block</t>
+  </si>
+  <si>
+    <t>defined per block</t>
+  </si>
+  <si>
+    <t>action(
+		permission_level{get_self(), "active"_n},
+		"eosio.token"_n,
+		"transfer"_n,
+		std::make_tuple(get_self(), income_contract_ac, qty, std::string("transfer game fee"))
+	).send();</t>
+  </si>
+  <si>
+    <t>import "test.hpp"</t>
+  </si>
+  <si>
+    <t>deployed contract name: eosio.token</t>
+  </si>
+  <si>
+    <t>treasuryAddress.call(bytes4(keccak256("storeValue(uint256)")), 100);</t>
+  </si>
+  <si>
+    <t>import "Test.sol"
+interface test {
+}</t>
+  </si>
+  <si>
+    <t>Types of accounts</t>
+  </si>
+  <si>
+    <t>1. User account
+2. Contract account</t>
+  </si>
+  <si>
+    <t>1. Externally Owned account
+2. Contract account</t>
+  </si>
+  <si>
+    <t>both have
+- account name
+- pub &amp; priv key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both have
+- address
+- EOA has pub &amp; priv key, but contract ac doesn't </t>
+  </si>
+  <si>
+    <t>mode of communication on a blockchain like email address, physical address</t>
+  </si>
+  <si>
+    <t>deployed contract address: addr
+it has some value: 0x3f43fed….
+Also called delegate call
+https://www.zupzup.org/smart-contract-interaction/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inter-contract communication: 
+M-1: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">After deployment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source code is not known</t>
+    </r>
+  </si>
+  <si>
+    <t>Using inheritance, the contract B's function can be called by contract A.
+Here, also the contract ac name is needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Interface, the contract B's function can be called by contract A.
+Here, also the contract ac name is needed
+</t>
+  </si>
+  <si>
+    <t>inter-contract communication: 
+M-2: Source code is known</t>
+  </si>
+  <si>
+    <t>used to start a node.</t>
+  </si>
+  <si>
+    <t>genesis.json
+{
+  "config": {
+        "chainId": 4568,
+        "homesteadBlock": 0,
+        "eip150Block": 0,
+        "eip155Block": 0,
+        "eip158Block": 0
+    },
+  "alloc"      : {},
+  "difficulty" : "0x100",
+  "extraData"  : "",
+  "gasLimit"   : "0x7A1200",
+  "parentHash" : "0x0000000000000000000000000000000000000000000000000000000000000000",
+  "timestamp"  : "0x00"
+}</t>
+  </si>
+  <si>
+    <t>genesis.json
+{
+  "initial_timestamp": "2018-06-08T08:08:08.888",
+  "initial_key": "EOS7EarnUhcyYqmdnPon8rm7mBCTnBoot6o7fE2WzjvEX2TdggbL3",
+  "initial_configuration": {
+    "max_block_net_usage": 1048576,
+    "target_block_net_usage_pct": 1000,
+    "max_transaction_net_usage": 524288,
+    "base_per_transaction_net_usage": 12,
+    "net_usage_leeway": 500,
+    "context_free_discount_net_usage_num": 20,
+    "context_free_discount_net_usage_den": 100,
+    "max_block_cpu_usage": 200000,
+    "target_block_cpu_usage_pct": 1000,
+    "max_transaction_cpu_usage": 150000,
+    "min_transaction_cpu_usage": 100,
+    "max_transaction_lifetime": 3600,
+    "deferred_trx_expiration_window": 600,
+    "max_transaction_delay": 3888000,
+    "max_inline_action_size": 4096,
+    "max_inline_action_depth": 4,
+    "max_authority_depth": 6
+  }
+}</t>
+  </si>
+  <si>
+    <t>Blockchain 1st block</t>
+  </si>
+  <si>
+    <t>Transaction data</t>
+  </si>
+  <si>
+    <t>from, to, value, gas, gasPrice, data, nonce</t>
+  </si>
+  <si>
+    <t>expiration, ref_block_num, ref_block_prefix, max_net_usage_words, max_cpu_usage_ms, delay_sec, context_free_actions, actions, transaction_extensions, signatures, context_free_data</t>
+  </si>
+  <si>
+    <t>img\eosio_txn_data.jpg</t>
+  </si>
+  <si>
+    <t>img\eth_txn_data.pdf</t>
+  </si>
+  <si>
+    <t>Using nodeos command
+https://github.com/CryptoLions/EOS-MainNet/blob/master/genesis.json</t>
+  </si>
+  <si>
+    <t>using geth command
+https://gist.github.com/0mkara/b953cc2585b18ee098cd</t>
+  </si>
+  <si>
+    <t>nodeos</t>
+  </si>
+  <si>
+    <t>geth</t>
+  </si>
+  <si>
+    <t>keosd</t>
+  </si>
+  <si>
+    <t>keystore</t>
+  </si>
+  <si>
+    <t>for signing a txn</t>
+  </si>
+  <si>
+    <t>encrypted with wallet password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encrypted with wallet password, mnemonic, </t>
+  </si>
+  <si>
+    <t>chain data storage folder</t>
+  </si>
+  <si>
+    <t>account keys storage folder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +456,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,6 +534,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340646</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349646</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>198274</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90A688B-6917-4CDD-9BD7-3777C69C8044}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9016560" y="9035314"/>
+            <a:ext cx="9000" cy="2160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90A688B-6917-4CDD-9BD7-3777C69C8044}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9007560" y="9026674"/>
+              <a:ext cx="26640" cy="19800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-17T14:45:45.859"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 1 9812,'0'0'225,"-24"0"-1074,24 5-1712</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,16 +930,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="3" customWidth="1"/>
@@ -669,270 +958,389 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="117.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{256ACFD2-13C0-4F91-80D3-9F69465C5166}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{62F04013-DE01-4572-A1DD-4EEF9F2C8F72}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{256ACFD2-13C0-4F91-80D3-9F69465C5166}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{61BEC854-3B83-4713-B7FF-F1A0968C3D5D}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{06C0BDFE-EDC1-44F2-ADA1-1B791EA4D6C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E69A6-39E3-494D-97CA-8B865D297FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49D4DB-568B-4E99-8B7E-89DEF5E1AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>EOSIO</t>
   </si>
@@ -422,6 +422,23 @@
   </si>
   <si>
     <t>account keys storage folder</t>
+  </si>
+  <si>
+    <t>Token with decimal representation</t>
+  </si>
+  <si>
+    <t>usage in contract code.
+NOTE: There is no way to represent decimal, so that's why this method is chosen.</t>
+  </si>
+  <si>
+    <t>9 EOSIO token is represented in code as 9*10^4
+Here, 4 is decimal.
+9.56 ~ 9.56*10^4</t>
+  </si>
+  <si>
+    <t>9 ERC20 token is represented in code as 9*10^18
+Here, 18 is decimal.
+9.56 ~ 9.56*10^18</t>
   </si>
 </sst>
 </file>
@@ -551,8 +568,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>198274</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -571,7 +588,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -930,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1311,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="151.19999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="117.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1329,6 +1346,22 @@
       <c r="F22" s="2" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding\github_repos\ethio_playground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/evm_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49D4DB-568B-4E99-8B7E-89DEF5E1AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C733ACC-B131-9143-8D78-268116CF1165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>EOSIO</t>
   </si>
@@ -439,6 +442,28 @@
     <t>9 ERC20 token is represented in code as 9*10^18
 Here, 18 is decimal.
 9.56 ~ 9.56*10^18</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>using distribute_action  = action_wrapper&lt;"distribute"_n, &amp;terraworlds::distribute&gt;;</t>
+  </si>
+  <si>
+    <t>interface InterfaceTerraworlds {
+   function distribute(uint256 nextId) external returns (bool);
+}</t>
+  </si>
+  <si>
+    <t>Using contract's function from inside another contract.</t>
+  </si>
+  <si>
+    <t>Write the function inside the contract &amp; make the function available to external contract(s) using action_wrapper</t>
+  </si>
+  <si>
+    <t>Write the function inside the contract &amp; make the function available via 2methods:
+M-1: writing interface module inside another contract or 
+M-2: creating a file with interface module inside.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +591,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>349646</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>198274</xdr:rowOff>
+      <xdr:rowOff>196114</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -947,24 +972,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="28.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1004,7 +1029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1022,7 +1047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1042,7 +1067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -1056,7 +1081,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -1076,7 +1101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1137,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1155,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1171,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1185,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1180,7 +1205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1200,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1241,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1236,7 +1261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1250,7 +1275,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -1264,7 +1289,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -1278,7 +1303,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -1295,7 +1320,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1311,7 +1336,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -1329,7 +1354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="117.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1347,7 +1372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -1363,7 +1388,28 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
+    <row r="24" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F23" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}"/>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{097BD82B-43D0-478B-A616-A3D0ED0E8BD4}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{BC7E8774-8200-4B94-B8CC-23F9BC4821B0}"/>

--- a/eosio_vs_eth.xlsx
+++ b/eosio_vs_eth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhi3700/F/coding/github_repos/evm_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C733ACC-B131-9143-8D78-268116CF1165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAED13E-8C21-E846-8278-4887A066968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440" xr2:uid="{525611D5-18D7-41F8-A371-26E5FA616275}"/>
   </bookViews>
@@ -22,6 +22,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -974,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E29F14-69FA-4A1C-8576-9B2A132A653B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="135" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,7 +999,7 @@
     <col min="7" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
